--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D075EBB-982F-FF48-8F35-F1531B0CB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C8548-40A2-0A47-81CE-D7411B987F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7960" yWindow="500" windowWidth="23180" windowHeight="17120" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>sample</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>T_EP_4</t>
+  </si>
+  <si>
+    <t>13.9.2022</t>
+  </si>
+  <si>
+    <t>15.9.2022</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -428,7 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -757,7 +762,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,23 +786,34 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="12">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -876,314 +892,334 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C8548-40A2-0A47-81CE-D7411B987F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1B9F6-5174-3D4F-9CCF-BE1667DC5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="500" windowWidth="23180" windowHeight="17120" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="15560" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>sample</t>
   </si>
@@ -212,13 +212,46 @@
   </si>
   <si>
     <t>15.9.2022</t>
+  </si>
+  <si>
+    <t>status_done</t>
+  </si>
+  <si>
+    <t>status_checked</t>
+  </si>
+  <si>
+    <t>analyzed_visual</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>preprocessing</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ERROR: Preprocessing/mg.se.fq is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>19.9.2022</t>
+  </si>
+  <si>
+    <t>20.9.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +264,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -418,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -439,6 +478,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,19 +801,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -781,8 +827,21 @@
       <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -792,8 +851,20 @@
       <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -803,8 +874,20 @@
       <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -814,8 +897,20 @@
       <c r="C4" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -824,7 +919,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -833,7 +928,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -843,7 +938,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -853,7 +948,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -863,7 +958,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -873,7 +968,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -882,7 +977,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -891,7 +986,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -901,9 +996,24 @@
       <c r="C13" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="15">
@@ -912,9 +1022,20 @@
       <c r="C14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1045,20 @@
       <c r="C15" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1068,20 @@
       <c r="C16" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -946,99 +1091,142 @@
       <c r="C17" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>3</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>32</v>
       </c>
@@ -1047,7 +1235,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>33</v>
       </c>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1B9F6-5174-3D4F-9CCF-BE1667DC5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719483D4-2D52-6A41-B386-B37AB0304C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="4760" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>sample</t>
   </si>
@@ -245,13 +245,16 @@
   </si>
   <si>
     <t>20.9.2022</t>
+  </si>
+  <si>
+    <t>21.09.2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +273,14 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -457,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -480,7 +491,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +820,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +945,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
@@ -987,7 +1003,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="15">
@@ -1013,7 +1029,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="15">
@@ -1149,9 +1165,21 @@
       <c r="C23" s="16" t="s">
         <v>68</v>
       </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="16">
@@ -1160,9 +1188,24 @@
       <c r="C24" s="16" t="s">
         <v>68</v>
       </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="16">
@@ -1188,7 +1231,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="16">
@@ -1202,11 +1245,15 @@
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="16"/>
@@ -1216,18 +1263,22 @@
       <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="16">
+        <v>4</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="16"/>
@@ -1236,7 +1287,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="16"/>
@@ -1245,7 +1296,7 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="16"/>
@@ -1254,7 +1305,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="17"/>
@@ -1263,147 +1314,147 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="26" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="26" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="19"/>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719483D4-2D52-6A41-B386-B37AB0304C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E4A884-47E3-ED4F-ADF3-720AA7E57BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="12460" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>sample</t>
   </si>
@@ -820,7 +820,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,6 +1240,21 @@
       <c r="C26" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E4A884-47E3-ED4F-ADF3-720AA7E57BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD39B90A-5DAA-AA42-BD70-D76A9CAA92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>sample</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>21.09.2022</t>
+  </si>
+  <si>
+    <t>26.09.2022</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,8 +933,12 @@
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
@@ -939,8 +946,12 @@
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
@@ -1284,6 +1295,18 @@
       <c r="C29" s="16" t="s">
         <v>70</v>
       </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD39B90A-5DAA-AA42-BD70-D76A9CAA92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C5E55E-AF40-DF44-8A9D-FFC0C84D39CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>sample</t>
   </si>
@@ -823,7 +823,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,8 +939,15 @@
       <c r="C5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C5E55E-AF40-DF44-8A9D-FFC0C84D39CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635AA40-AFA1-9E45-A90C-A94D9B9AB271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>sample</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>26.09.2022</t>
+  </si>
+  <si>
+    <t>30.09.2022</t>
+  </si>
+  <si>
+    <t>3.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty but i thought it wasn't </t>
+  </si>
+  <si>
+    <t>6.10.2022</t>
   </si>
 </sst>
 </file>
@@ -823,7 +835,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,6 +960,9 @@
       <c r="F5" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -959,66 +974,142 @@
       <c r="C6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
@@ -1142,36 +1233,74 @@
       <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="15">
+        <v>5</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -1275,7 +1404,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="16">
@@ -1283,6 +1412,18 @@
       </c>
       <c r="C27" s="16" t="s">
         <v>70</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635AA40-AFA1-9E45-A90C-A94D9B9AB271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C688B-4908-6A47-8A60-B4C13961F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>sample</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>6.10.2022</t>
+  </si>
+  <si>
+    <t>7.10.2022</t>
+  </si>
+  <si>
+    <t> T_712_2_125282342.stderr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reran accidentally </t>
+  </si>
+  <si>
+    <t>8.10.2022</t>
   </si>
 </sst>
 </file>
@@ -832,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -848,7 +860,7 @@
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -872,7 +884,7 @@
       </c>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -894,8 +906,14 @@
       <c r="G2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -918,7 +936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -941,7 +959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -964,7 +982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1026,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1047,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1068,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1089,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -1430,8 +1448,12 @@
       <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="16">
+        <v>3</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -1460,15 +1482,23 @@
       <c r="A30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="16">
+        <v>2</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="16">
+        <v>3</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
@@ -1476,8 +1506,12 @@
       <c r="A32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="16">
+        <v>4</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
@@ -1485,8 +1519,12 @@
       <c r="A33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="16">
+        <v>5</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C688B-4908-6A47-8A60-B4C13961F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC04883-0C76-9B46-86E6-F29849F1FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>sample</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>8.10.2022</t>
+  </si>
+  <si>
+    <t>10.10.2022</t>
   </si>
 </sst>
 </file>
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,8 +1535,12 @@
       <c r="A34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
@@ -1541,29 +1548,45 @@
       <c r="A35" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="17">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="17">
+        <v>3</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="17">
+        <v>4</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="17">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC04883-0C76-9B46-86E6-F29849F1FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10E0F7-4358-9E4D-90A3-DA287B8AAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -277,7 +277,7 @@
     <t>8.10.2022</t>
   </si>
   <si>
-    <t>10.10.2022</t>
+    <t>14.10.2022</t>
   </si>
 </sst>
 </file>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,6 +1491,15 @@
       <c r="C30" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
@@ -1536,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>80</v>
@@ -1549,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>80</v>
@@ -1560,7 +1569,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>80</v>
@@ -1571,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>80</v>
@@ -1581,12 +1590,8 @@
       <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="17">
-        <v>5</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10E0F7-4358-9E4D-90A3-DA287B8AAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85156D1E-8F84-4B46-B012-B8BCCBBAB1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>sample</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>14.10.2022</t>
+  </si>
+  <si>
+    <t>16.10.2022</t>
+  </si>
+  <si>
+    <t>19.10.2022</t>
   </si>
 </sst>
 </file>
@@ -849,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1590,64 +1596,100 @@
       <c r="A38" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="17">
+        <v>3</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="17">
+        <v>4</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="17">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="17">
+        <v>2</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="18">
+        <v>3</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="18">
+        <v>4</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="18">
+        <v>5</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85156D1E-8F84-4B46-B012-B8BCCBBAB1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41A53E-D235-4145-BDD9-7E35F51E1C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
   <si>
     <t>sample</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>19.10.2022</t>
+  </si>
+  <si>
+    <t>21.10.2022</t>
+  </si>
+  <si>
+    <t>23.10.2022</t>
+  </si>
+  <si>
+    <t>24.10.2022</t>
   </si>
 </sst>
 </file>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,6 +1315,15 @@
       <c r="C20" s="15" t="s">
         <v>75</v>
       </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -1317,6 +1335,15 @@
       <c r="C21" s="15" t="s">
         <v>75</v>
       </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
@@ -1328,6 +1355,15 @@
       <c r="C22" s="15" t="s">
         <v>75</v>
       </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -1463,6 +1499,15 @@
       <c r="C28" s="16" t="s">
         <v>76</v>
       </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -1517,8 +1562,15 @@
       <c r="C31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
@@ -1530,8 +1582,15 @@
       <c r="C32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
@@ -1543,8 +1602,15 @@
       <c r="C33" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -1556,8 +1622,15 @@
       <c r="C34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
@@ -1569,6 +1642,15 @@
       <c r="C35" s="17" t="s">
         <v>80</v>
       </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
@@ -1580,6 +1662,15 @@
       <c r="C36" s="17" t="s">
         <v>80</v>
       </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
@@ -1591,6 +1682,15 @@
       <c r="C37" s="17" t="s">
         <v>80</v>
       </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
@@ -1602,6 +1702,15 @@
       <c r="C38" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
@@ -1613,6 +1722,15 @@
       <c r="C39" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
@@ -1624,6 +1742,15 @@
       <c r="C40" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
@@ -1635,6 +1762,15 @@
       <c r="C41" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
@@ -1646,6 +1782,15 @@
       <c r="C42" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
@@ -1657,6 +1802,15 @@
       <c r="C43" s="17" t="s">
         <v>82</v>
       </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
@@ -1668,6 +1822,15 @@
       <c r="C44" s="18" t="s">
         <v>82</v>
       </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
@@ -1679,6 +1842,15 @@
       <c r="C45" s="18" t="s">
         <v>82</v>
       </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
@@ -1690,69 +1862,195 @@
       <c r="C46" s="18" t="s">
         <v>82</v>
       </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="18">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="18">
+        <v>3</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="18">
+        <v>4</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="18">
+        <v>5</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="19">
+        <v>2</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="19">
+        <v>4</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="19">
+        <v>3</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="19">
+        <v>5</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC41A53E-D235-4145-BDD9-7E35F51E1C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD815A3-2965-D146-949B-BD0E58DF5446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17100" windowHeight="17620" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="18360" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="85">
   <si>
     <t>sample</t>
   </si>
@@ -235,9 +235,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>ERROR: Preprocessing/mg.se.fq is empty.</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes </t>
   </si>
   <si>
@@ -259,21 +256,12 @@
     <t>3.10.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">empty but i thought it wasn't </t>
-  </si>
-  <si>
     <t>6.10.2022</t>
   </si>
   <si>
     <t>7.10.2022</t>
   </si>
   <si>
-    <t> T_712_2_125282342.stderr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reran accidentally </t>
-  </si>
-  <si>
     <t>8.10.2022</t>
   </si>
   <si>
@@ -293,6 +281,15 @@
   </si>
   <si>
     <t>24.10.2022</t>
+  </si>
+  <si>
+    <t>antiSMASH</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -509,11 +506,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -535,13 +556,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +591,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -854,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +903,7 @@
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -897,12 +922,14 @@
       <c r="F1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -924,14 +951,11 @@
       <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -953,8 +977,11 @@
       <c r="G3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -976,8 +1003,11 @@
       <c r="G4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -999,8 +1029,11 @@
       <c r="G5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1022,16 +1055,19 @@
       <c r="G6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="H6" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1042,9 +1078,12 @@
       <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="28"/>
+      <c r="H7" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1063,9 +1102,12 @@
       <c r="F8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="29"/>
+      <c r="H8" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1082,11 +1124,14 @@
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1105,9 +1150,12 @@
       <c r="F10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="7"/>
+      <c r="H10" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1115,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1126,8 +1174,11 @@
       <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1146,9 +1197,12 @@
       <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="H12" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="15">
@@ -1169,11 +1223,11 @@
       <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1195,8 +1249,11 @@
       <c r="G14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
@@ -1218,8 +1275,11 @@
       <c r="G15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -1240,6 +1300,9 @@
       </c>
       <c r="G16" t="s">
         <v>64</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1259,10 +1322,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>64</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1273,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1283,6 +1349,9 @@
       </c>
       <c r="F18" t="s">
         <v>62</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1293,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1302,7 +1371,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1313,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1323,6 +1395,9 @@
       </c>
       <c r="F20" t="s">
         <v>62</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1333,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -1343,6 +1418,9 @@
       </c>
       <c r="F21" t="s">
         <v>62</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1363,6 +1441,9 @@
       </c>
       <c r="F22" t="s">
         <v>62</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1373,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -1387,16 +1468,19 @@
       <c r="G23" t="s">
         <v>64</v>
       </c>
+      <c r="H23" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="16">
         <v>4</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -1410,19 +1494,19 @@
       <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="H24" t="s">
-        <v>66</v>
+      <c r="H24" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="16">
         <v>5</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1436,19 +1520,19 @@
       <c r="G25" t="s">
         <v>65</v>
       </c>
-      <c r="H25" t="s">
-        <v>66</v>
+      <c r="H25" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="16">
         <v>2</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -1462,51 +1546,54 @@
       <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="16">
+        <v>3</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="16">
-        <v>3</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="16">
-        <v>3</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
+      <c r="H28" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1517,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -1531,16 +1618,19 @@
       <c r="G29" t="s">
         <v>64</v>
       </c>
+      <c r="H29" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="16">
         <v>2</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -1551,16 +1641,19 @@
       <c r="F30" t="s">
         <v>62</v>
       </c>
+      <c r="H30" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="16">
         <v>3</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1571,16 +1664,19 @@
       <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="H31" s="30" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="16">
         <v>4</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -1591,16 +1687,19 @@
       <c r="F32" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="H32" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="16">
         <v>5</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1609,18 +1708,21 @@
         <v>2</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -1631,16 +1733,19 @@
       <c r="F34" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="H34" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="17">
         <v>1</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -1651,16 +1756,19 @@
       <c r="F35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="H35" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="17">
         <v>4</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -1671,16 +1779,19 @@
       <c r="F36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="H36" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="17">
         <v>5</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -1691,16 +1802,19 @@
       <c r="F37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="H37" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="17">
         <v>1</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1711,16 +1825,19 @@
       <c r="F38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="H38" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -1731,16 +1848,19 @@
       <c r="F39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="H39" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="17">
         <v>4</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -1751,16 +1871,19 @@
       <c r="F40" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="H40" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1771,16 +1894,19 @@
       <c r="F41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="H41" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="17">
         <v>1</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1791,16 +1917,19 @@
       <c r="F42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="H42" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="17">
         <v>2</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -1809,18 +1938,21 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="18">
         <v>3</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -1831,16 +1963,19 @@
       <c r="F44" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="H44" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="18">
         <v>4</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1851,16 +1986,19 @@
       <c r="F45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="H45" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="18">
         <v>5</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -1871,16 +2009,19 @@
       <c r="F46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="H46" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="18">
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -1891,16 +2032,19 @@
       <c r="F47" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="H47" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="18">
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -1911,16 +2055,19 @@
       <c r="F48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="H48" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="18">
         <v>3</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -1931,16 +2078,19 @@
       <c r="F49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="H49" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="18">
         <v>4</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -1951,16 +2101,19 @@
       <c r="F50" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="H50" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="18">
         <v>5</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -1971,16 +2124,19 @@
       <c r="F51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="27" t="s">
+      <c r="H51" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="19">
         <v>2</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -1991,16 +2147,19 @@
       <c r="F52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="H52" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="19">
         <v>4</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -2011,16 +2170,19 @@
       <c r="F53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
+      <c r="H53" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="19">
         <v>3</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -2031,16 +2193,19 @@
       <c r="F54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="27" t="s">
+      <c r="H54" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="19">
         <v>5</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -2050,6 +2215,9 @@
       </c>
       <c r="F55" t="s">
         <v>62</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/assemblynode_commitment.xlsx
+++ b/assemblynode_commitment.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SusanaLopezLemarroy/Documents/Vrije_University_in_Amsterdam/INTERNSHIPs/Minor/tomato-rhizosphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD815A3-2965-D146-949B-BD0E58DF5446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A93096-F155-264B-B519-CA9D6614F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="18360" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
+    <workbookView xWindow="17400" yWindow="500" windowWidth="15740" windowHeight="18840" activeTab="2" xr2:uid="{7CDAEA52-EF8C-F547-9DD4-5CF0429F0995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="146">
   <si>
     <t>sample</t>
   </si>
@@ -290,13 +293,196 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>N50 (~bp/contig)</t>
+  </si>
+  <si>
+    <t>sequencing depth</t>
+  </si>
+  <si>
+    <t>coding sequences</t>
+  </si>
+  <si>
+    <t>kegg annotation</t>
+  </si>
+  <si>
+    <t>dbcan annotation</t>
+  </si>
+  <si>
+    <t>mean 712</t>
+  </si>
+  <si>
+    <t>mean 722</t>
+  </si>
+  <si>
+    <t>mean CCD8</t>
+  </si>
+  <si>
+    <t>mean GUS</t>
+  </si>
+  <si>
+    <t>mean MMA</t>
+  </si>
+  <si>
+    <t>mean EP</t>
+  </si>
+  <si>
+    <t>sd 712</t>
+  </si>
+  <si>
+    <t>sd 722</t>
+  </si>
+  <si>
+    <t>sd CCD8</t>
+  </si>
+  <si>
+    <t>sd GUS</t>
+  </si>
+  <si>
+    <t>sd MMA</t>
+  </si>
+  <si>
+    <t>sd EP</t>
+  </si>
+  <si>
+    <t>mean all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd all </t>
+  </si>
+  <si>
+    <t>CCD8</t>
+  </si>
+  <si>
+    <t>GUS</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Mean ALL</t>
+  </si>
+  <si>
+    <t>SD ALL</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>dbCAN</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>terpene</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>NRPS</t>
+  </si>
+  <si>
+    <t>RiPP</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>hserlactone</t>
+  </si>
+  <si>
+    <t>siderophore/hserlactone</t>
+  </si>
+  <si>
+    <t>ectoine</t>
+  </si>
+  <si>
+    <t>arylpolyene</t>
+  </si>
+  <si>
+    <t>NRPS/ladderane</t>
+  </si>
+  <si>
+    <t>indole</t>
+  </si>
+  <si>
+    <t>NRPS/PKS</t>
+  </si>
+  <si>
+    <t>RiPP/terpene</t>
+  </si>
+  <si>
+    <t>siderophore</t>
+  </si>
+  <si>
+    <t>phosphonate</t>
+  </si>
+  <si>
+    <t>phosphonate x2</t>
+  </si>
+  <si>
+    <t>acyl_amino_acids</t>
+  </si>
+  <si>
+    <t>NRPS/acyl_amino_acids</t>
+  </si>
+  <si>
+    <t>acyl_amino_acids x2</t>
+  </si>
+  <si>
+    <t>betalactone x2</t>
+  </si>
+  <si>
+    <t>ladderane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRPS/PKS x3 </t>
+  </si>
+  <si>
+    <t>NRPS/PKS x4</t>
+  </si>
+  <si>
+    <t>acyl_amino_acids x3</t>
+  </si>
+  <si>
+    <t>NRPS/PKS x5</t>
+  </si>
+  <si>
+    <t>betalactone x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphonate </t>
+  </si>
+  <si>
+    <t>amglyccycl</t>
+  </si>
+  <si>
+    <t>resorcinol/arylpolyene</t>
+  </si>
+  <si>
+    <t>ladderane x3</t>
+  </si>
+  <si>
+    <t>NRPS/PKS x8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,8 +510,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -562,11 +760,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +797,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8C9B1-2E7A-3644-8453-742039F44AAA}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +1131,7 @@
       <c r="G1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -951,7 +1157,7 @@
       <c r="G2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>84</v>
       </c>
     </row>
@@ -977,7 +1183,7 @@
       <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1003,7 +1209,7 @@
       <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1029,7 +1235,7 @@
       <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1055,7 +1261,7 @@
       <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1079,7 +1285,7 @@
         <v>62</v>
       </c>
       <c r="G7" s="28"/>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1102,8 +1308,7 @@
       <c r="F8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1126,8 +1331,7 @@
       <c r="F9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1151,7 +1355,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1174,7 +1378,7 @@
       <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1197,7 +1401,7 @@
       <c r="F12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1223,7 +1427,7 @@
       <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1249,7 +1453,7 @@
       <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1275,7 +1479,7 @@
       <c r="G15" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1301,7 +1505,7 @@
       <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1327,7 +1531,7 @@
       <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1350,7 +1554,7 @@
       <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1373,7 +1577,7 @@
       <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1396,7 +1600,7 @@
       <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1419,7 +1623,7 @@
       <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1442,7 +1646,7 @@
       <c r="F22" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1468,7 +1672,7 @@
       <c r="G23" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1494,7 +1698,7 @@
       <c r="G24" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1520,7 +1724,7 @@
       <c r="G25" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1546,7 +1750,7 @@
       <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1569,7 +1773,7 @@
       <c r="F27" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1592,7 +1796,7 @@
       <c r="F28" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1618,7 +1822,7 @@
       <c r="G29" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1641,7 +1845,7 @@
       <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1664,7 +1868,7 @@
       <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1687,7 +1891,7 @@
       <c r="F32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1710,7 +1914,7 @@
       <c r="F33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1733,7 +1937,7 @@
       <c r="F34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1756,7 +1960,7 @@
       <c r="F35" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1779,7 +1983,7 @@
       <c r="F36" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1802,7 +2006,7 @@
       <c r="F37" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1825,7 +2029,7 @@
       <c r="F38" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1848,7 +2052,7 @@
       <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1871,7 +2075,7 @@
       <c r="F40" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1894,7 +2098,7 @@
       <c r="F41" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1917,7 +2121,7 @@
       <c r="F42" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1940,7 +2144,7 @@
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1963,7 +2167,7 @@
       <c r="F44" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1986,7 +2190,7 @@
       <c r="F45" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2009,7 +2213,7 @@
       <c r="F46" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2032,7 +2236,7 @@
       <c r="F47" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2055,7 +2259,7 @@
       <c r="F48" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2078,7 +2282,7 @@
       <c r="F49" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2101,7 +2305,7 @@
       <c r="F50" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2124,7 +2328,7 @@
       <c r="F51" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2147,7 +2351,7 @@
       <c r="F52" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2170,7 +2374,7 @@
       <c r="F53" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2193,7 +2397,7 @@
       <c r="F54" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2216,7 +2420,7 @@
       <c r="F55" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="29" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2224,4 +2428,2446 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F5A333-9108-0C49-8976-6923BF7BE698}">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34">
+        <v>656</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2911597</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1727833</v>
+      </c>
+      <c r="E2" s="34">
+        <v>42009842</v>
+      </c>
+      <c r="F2" s="34">
+        <v>95384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="34">
+        <v>652</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2732103</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1630116</v>
+      </c>
+      <c r="E3" s="34">
+        <v>39617304</v>
+      </c>
+      <c r="F3" s="34">
+        <v>90118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="34">
+        <v>677</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2799010</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1659179</v>
+      </c>
+      <c r="E4" s="34">
+        <v>41249362</v>
+      </c>
+      <c r="F4" s="34">
+        <v>91889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34">
+        <v>673</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2826357</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1676503</v>
+      </c>
+      <c r="E5" s="34">
+        <v>40256265</v>
+      </c>
+      <c r="F5" s="34">
+        <v>94067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="34">
+        <v>690</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3148903</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1900787</v>
+      </c>
+      <c r="E6" s="34">
+        <v>43468340</v>
+      </c>
+      <c r="F6" s="34">
+        <v>105196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="34">
+        <v>650</v>
+      </c>
+      <c r="C7" s="34">
+        <v>3128755</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1809782</v>
+      </c>
+      <c r="E7" s="34">
+        <v>49211963</v>
+      </c>
+      <c r="F7" s="34">
+        <v>102723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="34">
+        <v>654</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2886190</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1696955</v>
+      </c>
+      <c r="E8" s="34">
+        <v>41276375</v>
+      </c>
+      <c r="F8" s="34">
+        <v>95644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="34">
+        <v>679</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2756262</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1650517</v>
+      </c>
+      <c r="E9" s="34">
+        <v>41812207</v>
+      </c>
+      <c r="F9" s="34">
+        <v>90892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="34">
+        <v>673</v>
+      </c>
+      <c r="C10" s="34">
+        <v>3122642</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1871664</v>
+      </c>
+      <c r="E10" s="34">
+        <v>42386411</v>
+      </c>
+      <c r="F10" s="34">
+        <v>103112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="34">
+        <v>657</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2997146</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1796521</v>
+      </c>
+      <c r="E11" s="34">
+        <v>42740104</v>
+      </c>
+      <c r="F11" s="34">
+        <v>96759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="34">
+        <v>663</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3171741</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1871541</v>
+      </c>
+      <c r="E12" s="34">
+        <v>43086017</v>
+      </c>
+      <c r="F12" s="34">
+        <v>102951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="34">
+        <v>658</v>
+      </c>
+      <c r="C13" s="34">
+        <v>3316695</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1955065</v>
+      </c>
+      <c r="E13" s="34">
+        <v>51021209</v>
+      </c>
+      <c r="F13" s="34">
+        <v>109329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="34">
+        <v>673</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3241441</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1944180</v>
+      </c>
+      <c r="E14" s="34">
+        <v>50700955</v>
+      </c>
+      <c r="F14" s="34">
+        <v>107168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="34">
+        <v>663</v>
+      </c>
+      <c r="C15" s="34">
+        <v>3218274</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1911048</v>
+      </c>
+      <c r="E15" s="34">
+        <v>50271384</v>
+      </c>
+      <c r="F15" s="34">
+        <v>106125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="34">
+        <v>663</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3572881</v>
+      </c>
+      <c r="D16" s="34">
+        <v>2104572</v>
+      </c>
+      <c r="E16" s="34">
+        <v>55971315</v>
+      </c>
+      <c r="F16" s="34">
+        <v>116285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="34">
+        <v>663</v>
+      </c>
+      <c r="C17" s="34">
+        <v>3527924</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2055833</v>
+      </c>
+      <c r="E17" s="34">
+        <v>51799293</v>
+      </c>
+      <c r="F17" s="34">
+        <v>114272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="34">
+        <v>663</v>
+      </c>
+      <c r="C18" s="34">
+        <v>3240583</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1890918</v>
+      </c>
+      <c r="E18" s="34">
+        <v>48777590</v>
+      </c>
+      <c r="F18" s="34">
+        <v>107229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="34">
+        <v>662</v>
+      </c>
+      <c r="C19" s="34">
+        <v>3359895</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1994497</v>
+      </c>
+      <c r="E19" s="34">
+        <v>49853649</v>
+      </c>
+      <c r="F19" s="34">
+        <v>111400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="34">
+        <v>679</v>
+      </c>
+      <c r="C20" s="34">
+        <v>3482179</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2076068</v>
+      </c>
+      <c r="E20" s="34">
+        <v>52410585</v>
+      </c>
+      <c r="F20" s="34">
+        <v>112601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="34">
+        <v>665</v>
+      </c>
+      <c r="C21" s="34">
+        <v>3147488</v>
+      </c>
+      <c r="D21" s="34">
+        <v>1886539</v>
+      </c>
+      <c r="E21" s="34">
+        <v>47795296</v>
+      </c>
+      <c r="F21" s="34">
+        <v>104713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="34">
+        <v>663</v>
+      </c>
+      <c r="C22" s="34">
+        <v>3506722</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2059359</v>
+      </c>
+      <c r="E22" s="34">
+        <v>52884731</v>
+      </c>
+      <c r="F22" s="34">
+        <v>119969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="34">
+        <v>661</v>
+      </c>
+      <c r="C23" s="34">
+        <v>3646772</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2177377</v>
+      </c>
+      <c r="E23" s="34">
+        <v>55759975</v>
+      </c>
+      <c r="F23" s="34">
+        <v>116013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="34">
+        <v>687</v>
+      </c>
+      <c r="C24" s="34">
+        <v>3192502</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1905372</v>
+      </c>
+      <c r="E24" s="34">
+        <v>52957530</v>
+      </c>
+      <c r="F24" s="34">
+        <v>104802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="34">
+        <v>670</v>
+      </c>
+      <c r="C25" s="34">
+        <v>3200620</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1902374</v>
+      </c>
+      <c r="E25" s="34">
+        <v>50959315</v>
+      </c>
+      <c r="F25" s="34">
+        <v>104654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="34">
+        <v>688</v>
+      </c>
+      <c r="C26" s="34">
+        <v>3294180</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1946771</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51312556</v>
+      </c>
+      <c r="F26" s="34">
+        <v>113033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="34">
+        <v>658</v>
+      </c>
+      <c r="C27" s="34">
+        <v>3509677</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2035390</v>
+      </c>
+      <c r="E27" s="34">
+        <v>49687393</v>
+      </c>
+      <c r="F27" s="34">
+        <v>116660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="34">
+        <v>677</v>
+      </c>
+      <c r="C28" s="34">
+        <v>3577216</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2084918</v>
+      </c>
+      <c r="E28" s="34">
+        <v>52528960</v>
+      </c>
+      <c r="F28" s="34">
+        <v>116814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="34">
+        <v>658</v>
+      </c>
+      <c r="C29" s="34">
+        <v>3070790</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1836783</v>
+      </c>
+      <c r="E29" s="34">
+        <v>49517774</v>
+      </c>
+      <c r="F29" s="34">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="34">
+        <v>678</v>
+      </c>
+      <c r="C30" s="34">
+        <v>3231892</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1892106</v>
+      </c>
+      <c r="E30" s="34">
+        <v>51743783</v>
+      </c>
+      <c r="F30" s="34">
+        <v>107995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="34">
+        <v>677</v>
+      </c>
+      <c r="C31" s="34">
+        <v>3256296</v>
+      </c>
+      <c r="D31" s="34">
+        <v>1903140</v>
+      </c>
+      <c r="E31" s="34">
+        <v>52686908</v>
+      </c>
+      <c r="F31" s="34">
+        <v>113673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="34">
+        <v>683</v>
+      </c>
+      <c r="C32" s="34">
+        <v>3680915</v>
+      </c>
+      <c r="D32" s="34">
+        <v>2166840</v>
+      </c>
+      <c r="E32" s="34">
+        <v>52993665</v>
+      </c>
+      <c r="F32" s="34">
+        <v>121741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="34">
+        <v>692</v>
+      </c>
+      <c r="C33" s="34">
+        <v>3667808</v>
+      </c>
+      <c r="D33" s="34">
+        <v>2099356</v>
+      </c>
+      <c r="E33" s="34">
+        <v>53591941</v>
+      </c>
+      <c r="F33" s="34">
+        <v>120722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="34">
+        <v>665</v>
+      </c>
+      <c r="C34" s="34">
+        <v>3600326</v>
+      </c>
+      <c r="D34" s="34">
+        <v>2156175</v>
+      </c>
+      <c r="E34" s="34">
+        <v>52239054</v>
+      </c>
+      <c r="F34" s="34">
+        <v>120526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="34">
+        <v>687</v>
+      </c>
+      <c r="C35" s="34">
+        <v>3450002</v>
+      </c>
+      <c r="D35" s="34">
+        <v>2022577</v>
+      </c>
+      <c r="E35" s="34">
+        <v>51121942</v>
+      </c>
+      <c r="F35" s="34">
+        <v>116631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="34">
+        <v>670</v>
+      </c>
+      <c r="C36" s="34">
+        <v>3683381</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2167020</v>
+      </c>
+      <c r="E36" s="34">
+        <v>50358854</v>
+      </c>
+      <c r="F36" s="34">
+        <v>123763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="34">
+        <v>694</v>
+      </c>
+      <c r="C37" s="34">
+        <v>3683837</v>
+      </c>
+      <c r="D37" s="34">
+        <v>2194359</v>
+      </c>
+      <c r="E37" s="34">
+        <v>54382085</v>
+      </c>
+      <c r="F37" s="34">
+        <v>127343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="34">
+        <v>661</v>
+      </c>
+      <c r="C38" s="34">
+        <v>3613756</v>
+      </c>
+      <c r="D38" s="34">
+        <v>2124401</v>
+      </c>
+      <c r="E38" s="34">
+        <v>53211985</v>
+      </c>
+      <c r="F38" s="34">
+        <v>121011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="34">
+        <v>668</v>
+      </c>
+      <c r="C39" s="34">
+        <v>3169609</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1893768</v>
+      </c>
+      <c r="E39" s="34">
+        <v>46743942</v>
+      </c>
+      <c r="F39" s="34">
+        <v>104341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="34">
+        <v>668</v>
+      </c>
+      <c r="C40" s="34">
+        <v>3476797</v>
+      </c>
+      <c r="D40" s="34">
+        <v>2076354</v>
+      </c>
+      <c r="E40" s="34">
+        <v>52716147</v>
+      </c>
+      <c r="F40" s="34">
+        <v>114211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="34">
+        <v>685</v>
+      </c>
+      <c r="C41" s="34">
+        <v>3582997</v>
+      </c>
+      <c r="D41" s="34">
+        <v>2123707</v>
+      </c>
+      <c r="E41" s="34">
+        <v>54224004</v>
+      </c>
+      <c r="F41" s="34">
+        <v>125182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="34">
+        <v>690</v>
+      </c>
+      <c r="C42" s="34">
+        <v>3686469</v>
+      </c>
+      <c r="D42" s="34">
+        <v>2167673</v>
+      </c>
+      <c r="E42" s="34">
+        <v>53783995</v>
+      </c>
+      <c r="F42" s="34">
+        <v>126251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="34">
+        <v>677</v>
+      </c>
+      <c r="C43" s="34">
+        <v>3856780</v>
+      </c>
+      <c r="D43" s="34">
+        <v>2300988</v>
+      </c>
+      <c r="E43" s="34">
+        <v>53913911</v>
+      </c>
+      <c r="F43" s="34">
+        <v>128410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="34">
+        <v>674</v>
+      </c>
+      <c r="C44" s="34">
+        <v>3843451</v>
+      </c>
+      <c r="D44" s="34">
+        <v>2274173</v>
+      </c>
+      <c r="E44" s="34">
+        <v>52601324</v>
+      </c>
+      <c r="F44" s="34">
+        <v>126074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="34">
+        <v>669</v>
+      </c>
+      <c r="C45" s="34">
+        <v>3722085</v>
+      </c>
+      <c r="D45" s="34">
+        <v>2213654</v>
+      </c>
+      <c r="E45" s="34">
+        <v>52107634</v>
+      </c>
+      <c r="F45" s="34">
+        <v>124021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="34">
+        <v>679</v>
+      </c>
+      <c r="C46" s="34">
+        <v>3104182</v>
+      </c>
+      <c r="D46" s="34">
+        <v>1842715</v>
+      </c>
+      <c r="E46" s="34">
+        <v>50260651</v>
+      </c>
+      <c r="F46" s="34">
+        <v>101973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="34">
+        <v>669</v>
+      </c>
+      <c r="C47" s="34">
+        <v>3133252</v>
+      </c>
+      <c r="D47" s="34">
+        <v>1811706</v>
+      </c>
+      <c r="E47" s="34">
+        <v>50314295</v>
+      </c>
+      <c r="F47" s="34">
+        <v>100311</v>
+      </c>
+      <c r="J47" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="34">
+        <v>672</v>
+      </c>
+      <c r="C48" s="34">
+        <v>2890187</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1717950</v>
+      </c>
+      <c r="E48" s="34">
+        <v>46265488</v>
+      </c>
+      <c r="F48" s="34">
+        <v>94289</v>
+      </c>
+      <c r="I48">
+        <v>712</v>
+      </c>
+      <c r="J48" s="36">
+        <v>2952791.4545454546</v>
+      </c>
+      <c r="K48" s="36">
+        <v>1753763.4545454546</v>
+      </c>
+      <c r="L48" s="36">
+        <v>97157.727272727279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="34">
+        <v>662</v>
+      </c>
+      <c r="C49" s="34">
+        <v>3354783</v>
+      </c>
+      <c r="D49" s="34">
+        <v>1996447</v>
+      </c>
+      <c r="E49" s="34">
+        <v>50550676</v>
+      </c>
+      <c r="F49" s="34">
+        <v>110358</v>
+      </c>
+      <c r="I49">
+        <v>722</v>
+      </c>
+      <c r="J49" s="36">
+        <v>3361408.2</v>
+      </c>
+      <c r="K49" s="36">
+        <v>1987807.9</v>
+      </c>
+      <c r="L49" s="36">
+        <v>110909.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="34">
+        <v>675</v>
+      </c>
+      <c r="C50" s="34">
+        <v>3603721</v>
+      </c>
+      <c r="D50" s="34">
+        <v>2160211</v>
+      </c>
+      <c r="E50" s="34">
+        <v>52913100</v>
+      </c>
+      <c r="F50" s="34">
+        <v>115991</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" s="36">
+        <v>3393515.2727272729</v>
+      </c>
+      <c r="K50" s="36">
+        <v>1995493.3636363635</v>
+      </c>
+      <c r="L50" s="36">
+        <v>112402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="34">
+        <v>677</v>
+      </c>
+      <c r="C51" s="34">
+        <v>3378721</v>
+      </c>
+      <c r="D51" s="34">
+        <v>2013115</v>
+      </c>
+      <c r="E51" s="34">
+        <v>49282900</v>
+      </c>
+      <c r="F51" s="34">
+        <v>115496</v>
+      </c>
+      <c r="I51" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="36">
+        <v>3580395.4</v>
+      </c>
+      <c r="K51" s="36">
+        <v>2122702.2000000002</v>
+      </c>
+      <c r="L51" s="36">
+        <v>120766.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="34">
+        <v>674</v>
+      </c>
+      <c r="C52" s="34">
+        <v>3306350</v>
+      </c>
+      <c r="D52" s="34">
+        <v>1870513</v>
+      </c>
+      <c r="E52" s="34">
+        <v>57224541</v>
+      </c>
+      <c r="F52" s="34">
+        <v>111697</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="36">
+        <v>3378797.75</v>
+      </c>
+      <c r="K52" s="36">
+        <v>2003746.375</v>
+      </c>
+      <c r="L52" s="36">
+        <v>111064.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="34">
+        <v>712</v>
+      </c>
+      <c r="C53" s="34">
+        <v>3392302</v>
+      </c>
+      <c r="D53" s="34">
+        <v>1879408</v>
+      </c>
+      <c r="E53" s="34">
+        <v>57559396</v>
+      </c>
+      <c r="F53" s="34">
+        <v>120591</v>
+      </c>
+      <c r="I53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="36">
+        <v>3302686.25</v>
+      </c>
+      <c r="K53" s="36">
+        <v>1853687</v>
+      </c>
+      <c r="L53" s="36">
+        <v>112383.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="34">
+        <v>672</v>
+      </c>
+      <c r="C54" s="34">
+        <v>3371038</v>
+      </c>
+      <c r="D54" s="34">
+        <v>1870614</v>
+      </c>
+      <c r="E54" s="34">
+        <v>57537260</v>
+      </c>
+      <c r="F54" s="34">
+        <v>112037</v>
+      </c>
+      <c r="I54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="36">
+        <v>3323491.4259259258</v>
+      </c>
+      <c r="K54" s="36">
+        <v>1959104.5370370371</v>
+      </c>
+      <c r="L54" s="36">
+        <v>110369.70370370371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="34">
+        <v>663</v>
+      </c>
+      <c r="C55" s="34">
+        <v>3141055</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1794213</v>
+      </c>
+      <c r="E55" s="34">
+        <v>57713763</v>
+      </c>
+      <c r="F55" s="34">
+        <v>105209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" s="36">
+        <v>286939.79993355664</v>
+      </c>
+      <c r="K55" s="36">
+        <v>169214.53304380935</v>
+      </c>
+      <c r="L55" s="36">
+        <v>10280.880108110616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE($B$2:$B$12)</f>
+        <v>665.81818181818187</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:F57" si="0">AVERAGE(C$2:C$12)</f>
+        <v>2952791.4545454546</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1753763.4545454546</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>42464926.363636367</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>97157.727272727279</v>
+      </c>
+      <c r="H57" s="35"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <f>AVERAGE(B$13:B$22)</f>
+        <v>665.2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:F58" si="1">AVERAGE(C$13:C$22)</f>
+        <v>3361408.2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>1987807.9</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>51148600.700000003</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>110909.1</v>
+      </c>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59">
+        <f>AVERAGE(B$23:B$33)</f>
+        <v>675.36363636363637</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:F59" si="2">AVERAGE(C$23:C$33)</f>
+        <v>3393515.2727272729</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>1995493.3636363635</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>52158163.636363633</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>112402</v>
+      </c>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60">
+        <f>AVERAGE(B$34:B$43)</f>
+        <v>676.5</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:F60" si="3">AVERAGE(C$34:C$43)</f>
+        <v>3580395.4</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>2122702.2000000002</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>52269591.899999999</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>120766.9</v>
+      </c>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61">
+        <f>AVERAGE(B$44:B$51)</f>
+        <v>672.125</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:F61" si="4">AVERAGE(C$44:C$51)</f>
+        <v>3378797.75</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>2003746.375</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>50537008.5</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>111064.125</v>
+      </c>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <f>AVERAGE(B$52:B$55)</f>
+        <v>680.25</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:F62" si="5">AVERAGE(C$52:C$55)</f>
+        <v>3302686.25</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>1853687</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="5"/>
+        <v>57508740</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>112383.5</v>
+      </c>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64">
+        <f>STDEV(B$2:B$12)</f>
+        <v>13.227382067651797</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:F64" si="6">STDEV(C$2:C$12)</f>
+        <v>167711.86866251513</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>99557.925916888853</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>2520069.7773568206</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>5443.5935206609447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65">
+        <f>STDEV(B$13:B$22)</f>
+        <v>6.124631508189788</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:F65" si="7">STDEV(C$13:C$22)</f>
+        <v>151067.17145752671</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>81463.035064241121</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="7"/>
+        <v>2305020.9686521315</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="7"/>
+        <v>4907.020400519149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66">
+        <f>STDEV(B$23:B$33)</f>
+        <v>12.167766658452383</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:F66" si="8">STDEV(C$23:C$33)</f>
+        <v>224899.71291137341</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="8"/>
+        <v>120992.27100544292</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="8"/>
+        <v>1793968.7537335912</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>7017.1024931947513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
+        <f>STDEV(B$34:B$43)</f>
+        <v>11.692827811193588</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:F67" si="9">STDEV(C$34:C$43)</f>
+        <v>184675.00420239757</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="9"/>
+        <v>108840.0288137493</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>2353928.8909897213</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="9"/>
+        <v>7380.3074830554615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <f>STDEV(B$44:B$51)</f>
+        <v>5.4099775547461508</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:F68" si="10">STDEV(C$44:C$51)</f>
+        <v>329363.66174651298</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>202238.96005746518</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="10"/>
+        <v>2148717.5857872595</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>11447.234556090079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <f>STDEV(B$52:B$55)</f>
+        <v>21.700614430625386</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:F69" si="11">STDEV(C$52:C$55)</f>
+        <v>113784.92638416566</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="11"/>
+        <v>39867.965929218575</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>205087.72339822457</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>6309.4598553811775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <f>AVERAGE(B$2:B$55)</f>
+        <v>671.62962962962968</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:F71" si="12">AVERAGE(C$2:C$55)</f>
+        <v>3323491.4259259258</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>1959104.5370370371</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="12"/>
+        <v>50173461.925925925</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="12"/>
+        <v>110369.70370370371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <f>STDEV(B$2:B$55)</f>
+        <v>12.201602580014432</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:F72" si="13">STDEV(C$2:C$55)</f>
+        <v>286939.79993355664</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="13"/>
+        <v>169214.53304380935</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>4743452.4135767808</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="13"/>
+        <v>10280.880108110616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f>STDEV(C13:C33,C44:C55)</f>
+        <v>219013.29355956614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3E3D7-6F38-4A4B-85F2-3643ED5F56B5}">
+  <dimension ref="A1:T62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="37">
+        <v>85</v>
+      </c>
+      <c r="C6" s="38">
+        <v>9</v>
+      </c>
+      <c r="D6" s="38">
+        <v>15</v>
+      </c>
+      <c r="E6" s="38">
+        <v>5</v>
+      </c>
+      <c r="F6" s="38">
+        <v>27</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="38">
+        <v>5</v>
+      </c>
+      <c r="J6" s="38">
+        <v>2</v>
+      </c>
+      <c r="K6" s="38">
+        <v>7</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>4</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="37">
+        <v>89</v>
+      </c>
+      <c r="C18" s="38">
+        <v>9</v>
+      </c>
+      <c r="D18" s="38">
+        <v>8</v>
+      </c>
+      <c r="E18" s="38">
+        <v>10</v>
+      </c>
+      <c r="F18" s="38">
+        <v>35</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="38">
+        <v>6</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1</v>
+      </c>
+      <c r="K18" s="38">
+        <v>5</v>
+      </c>
+      <c r="L18" s="38">
+        <v>2</v>
+      </c>
+      <c r="M18" s="38">
+        <v>2</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="38">
+        <v>99</v>
+      </c>
+      <c r="C31" s="38">
+        <v>12</v>
+      </c>
+      <c r="D31" s="38">
+        <v>12</v>
+      </c>
+      <c r="E31" s="38">
+        <v>13</v>
+      </c>
+      <c r="F31" s="38">
+        <v>30</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="38">
+        <v>3</v>
+      </c>
+      <c r="J31" s="38">
+        <v>2</v>
+      </c>
+      <c r="K31" s="38">
+        <v>9</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1</v>
+      </c>
+      <c r="M31" s="38">
+        <v>2</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="38">
+        <v>91</v>
+      </c>
+      <c r="C35" s="38">
+        <v>8</v>
+      </c>
+      <c r="D35" s="38">
+        <v>9</v>
+      </c>
+      <c r="E35" s="38">
+        <v>14</v>
+      </c>
+      <c r="F35" s="38">
+        <v>30</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="38">
+        <v>6</v>
+      </c>
+      <c r="J35" s="38">
+        <v>2</v>
+      </c>
+      <c r="K35" s="38">
+        <v>5</v>
+      </c>
+      <c r="L35" s="38">
+        <v>1</v>
+      </c>
+      <c r="M35" s="38">
+        <v>1</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="38">
+        <v>91</v>
+      </c>
+      <c r="C44" s="38">
+        <v>7</v>
+      </c>
+      <c r="D44" s="38">
+        <v>15</v>
+      </c>
+      <c r="E44" s="38">
+        <v>11</v>
+      </c>
+      <c r="F44" s="38">
+        <v>28</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="38">
+        <v>2</v>
+      </c>
+      <c r="J44" s="39">
+        <v>1</v>
+      </c>
+      <c r="K44" s="38">
+        <v>6</v>
+      </c>
+      <c r="L44" s="38">
+        <v>2</v>
+      </c>
+      <c r="M44" s="38">
+        <v>2</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="R44" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="T44" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="38">
+        <v>84</v>
+      </c>
+      <c r="C53" s="38">
+        <v>5</v>
+      </c>
+      <c r="D53" s="38">
+        <v>13</v>
+      </c>
+      <c r="E53" s="38">
+        <v>11</v>
+      </c>
+      <c r="F53" s="38">
+        <v>31</v>
+      </c>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38">
+        <v>3</v>
+      </c>
+      <c r="J53" s="38">
+        <v>3</v>
+      </c>
+      <c r="K53" s="38">
+        <v>4</v>
+      </c>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="O53" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="P53" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f>AVERAGE($B$2:$B$12)</f>
+        <v>60.636363636363633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f>AVERAGE(B$13:B$22)</f>
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f>AVERAGE(B$23:B$33)</f>
+        <v>73.818181818181813</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>AVERAGE(B$34:B$43)</f>
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f>AVERAGE(B$44:B$51)</f>
+        <v>67.125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>AVERAGE(B$52:B$55)</f>
+        <v>64.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>